--- a/Test case.xlsx
+++ b/Test case.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuri\Desktop\testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuri\Desktop\testing\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>requirement</t>
   </si>
@@ -60,6 +60,10 @@
   </si>
   <si>
     <t>go to the site</t>
+  </si>
+  <si>
+    <t>1. fill all fields
+2. click the button OK</t>
   </si>
 </sst>
 </file>
@@ -465,7 +469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -540,7 +544,9 @@
       <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/Test case.xlsx
+++ b/Test case.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>requirement</t>
   </si>
@@ -63,6 +63,10 @@
   </si>
   <si>
     <t>1. fill all fields
+2. click the button OK</t>
+  </si>
+  <si>
+    <t>1. don't fill all fields
 2. click the button OK</t>
   </si>
 </sst>
@@ -470,7 +474,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -557,7 +561,9 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">

--- a/Test case.xlsx
+++ b/Test case.xlsx
@@ -80,12 +80,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -100,7 +106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -110,6 +116,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,7 +479,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C3" sqref="C3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,21 +542,21 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>

--- a/Test case.xlsx
+++ b/Test case.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>requirement</t>
   </si>
@@ -63,10 +63,6 @@
   </si>
   <si>
     <t>1. fill all fields
-2. click the button OK</t>
-  </si>
-  <si>
-    <t>1. don't fill all fields
 2. click the button OK</t>
   </si>
 </sst>
@@ -474,7 +470,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,7 +526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -561,9 +557,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
